--- a/Principal Components Regression/PCR_metrics_MSC.xlsx
+++ b/Principal Components Regression/PCR_metrics_MSC.xlsx
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6398643451656163</v>
+        <v>0.7245677153869775</v>
       </c>
       <c r="C2" t="n">
-        <v>1.412859435592559</v>
+        <v>1.208962742388331</v>
       </c>
       <c r="D2" t="n">
-        <v>4.941810624232752</v>
+        <v>2.912646590357467</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6539522884337271</v>
+        <v>0.7963739084570263</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,16 +496,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.671319820330126</v>
+        <v>0.8307301218662272</v>
       </c>
       <c r="C3" t="n">
-        <v>1.349747880017726</v>
+        <v>0.9477533661612625</v>
       </c>
       <c r="D3" t="n">
-        <v>4.680030124007941</v>
+        <v>2.409099371153587</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6713198203301268</v>
+        <v>0.8307301218662275</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6462380792768794</v>
+        <v>0.7928155575379147</v>
       </c>
       <c r="C4" t="n">
-        <v>1.626369830208337</v>
+        <v>1.177961235491922</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.72793799214819</v>
+        <v>-0.8145353726089564</v>
       </c>
       <c r="E4" t="n">
-        <v>1.407879039228864</v>
+        <v>1.066043967584901</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1447484208028446</v>
+        <v>0.5502288374228469</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2832885984819487</v>
+        <v>0.1835069227665432</v>
       </c>
       <c r="D5" t="n">
-        <v>2.661886711612238</v>
+        <v>1.21540574635928</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1895424110612953</v>
+        <v>0.6306099979936458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2217405066694812</v>
+        <v>0.6671467446213148</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2702367236817684</v>
+        <v>0.1578639820690602</v>
       </c>
       <c r="D6" t="n">
-        <v>2.557503005391436</v>
+        <v>1.093236876881811</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2217405066694813</v>
+        <v>0.6671467446213154</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3840914432290201</v>
+        <v>0.5845601290705358</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2112961222830163</v>
+        <v>0.1718657339154502</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.70161215417113</v>
+        <v>-0.4776681820325095</v>
       </c>
       <c r="E7" t="n">
-        <v>1.509381293062788</v>
+        <v>1.129463965686492</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -616,16 +616,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5393275463221696</v>
+        <v>0.7714936937974102</v>
       </c>
       <c r="C8" t="n">
-        <v>2.022969387017648</v>
+        <v>1.161649813721508</v>
       </c>
       <c r="D8" t="n">
-        <v>6.759056412649869</v>
+        <v>2.629274568267477</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5678637736757729</v>
+        <v>0.8308691955653364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -640,16 +640,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5775531979032302</v>
+        <v>0.8685503473728102</v>
       </c>
       <c r="C9" t="n">
-        <v>1.937221151387076</v>
+        <v>0.8810607480097106</v>
       </c>
       <c r="D9" t="n">
-        <v>6.591753356692101</v>
+        <v>2.037546983125261</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5775531979032303</v>
+        <v>0.8685503473728101</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7364529968249236</v>
+        <v>0.8467559570731764</v>
       </c>
       <c r="C10" t="n">
-        <v>1.39642457274941</v>
+        <v>1.002810359162865</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.21465497639648</v>
+        <v>0.3025969623121512</v>
       </c>
       <c r="E10" t="n">
-        <v>1.266330995688745</v>
+        <v>0.9856576300010467</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -688,16 +688,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3667750658866615</v>
+        <v>0.4010572457409342</v>
       </c>
       <c r="C11" t="n">
-        <v>76.29338147346733</v>
+        <v>67.71717442840989</v>
       </c>
       <c r="D11" t="n">
-        <v>303.7810914212952</v>
+        <v>278.8078407476759</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3956761588879628</v>
+        <v>0.438217361249827</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4210112071621079</v>
+        <v>0.468036423798283</v>
       </c>
       <c r="C12" t="n">
-        <v>72.95296359302954</v>
+        <v>63.81857743431031</v>
       </c>
       <c r="D12" t="n">
-        <v>291.2449706883452</v>
+        <v>264.5462397848366</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4210112071621083</v>
+        <v>0.4680364237982833</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -736,16 +736,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5636946029661642</v>
+        <v>0.4962498865702789</v>
       </c>
       <c r="C13" t="n">
-        <v>62.28790665711108</v>
+        <v>64.15944707716895</v>
       </c>
       <c r="D13" t="n">
-        <v>-102.7671403282662</v>
+        <v>-47.63674299814602</v>
       </c>
       <c r="E13" t="n">
-        <v>1.196643187103354</v>
+        <v>1.103211557465198</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4033251556589684</v>
+        <v>0.4922644776332936</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3571791198466386</v>
+        <v>0.3024404199897058</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5773069533785828</v>
+        <v>0.4091441678011877</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4461494944969674</v>
+        <v>0.6036236808795593</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -784,16 +784,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4741229438530581</v>
+        <v>0.6584940255535447</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3353198861722249</v>
+        <v>0.2480391366474397</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5448777454384682</v>
+        <v>0.3483127612290549</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4741229438530584</v>
+        <v>0.6584940255535451</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -808,16 +808,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4178941266721327</v>
+        <v>0.7494790450490605</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5097785569405738</v>
+        <v>0.2411397620914712</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.490409998184167</v>
+        <v>-0.05109580376707745</v>
       </c>
       <c r="E16" t="n">
-        <v>1.526824998399948</v>
+        <v>1.062483875983188</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
